--- a/results/Analysis_Sensitivity/Sens.Stratified.Scale/steps.stratified.summary.xlsx
+++ b/results/Analysis_Sensitivity/Sens.Stratified.Scale/steps.stratified.summary.xlsx
@@ -1,171 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gsn/Library/CloudStorage/OneDrive-JohnsHopkins/【JHU】Aging-RA/[WIT]Step/WIT_Step_R/ARIC_Step/Results/09.Sens.Stratified.Scale/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19660" windowHeight="13660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>ADEPT</t>
-  </si>
-  <si>
-    <t>605.85 ± 640.34</t>
-  </si>
-  <si>
-    <t>991.31 ± 803.05</t>
-  </si>
-  <si>
-    <t>879.47 ± 767.39</t>
-  </si>
-  <si>
-    <t>1123.81 ± 980.06</t>
-  </si>
-  <si>
-    <t>OAK</t>
-  </si>
-  <si>
-    <t>4336.39 ± 2345.96 b</t>
-  </si>
-  <si>
-    <t>5639.63 ± 2717.88 a</t>
-  </si>
-  <si>
-    <t>4984.42 ± 2866.58 ab</t>
-  </si>
-  <si>
-    <t>5253.79 ± 2987.05 a</t>
-  </si>
-  <si>
-    <t>SDT</t>
-  </si>
-  <si>
-    <t>23095.33 ± 6940.68 b</t>
-  </si>
-  <si>
-    <t>24855.25 ± 6758.01 a</t>
-  </si>
-  <si>
-    <t>23173.48 ± 6930.57 ab</t>
-  </si>
-  <si>
-    <t>23022.18 ± 6641.19 b</t>
-  </si>
-  <si>
-    <t>Stepcount</t>
-  </si>
-  <si>
-    <t>3577.66 ± 2426.42 b</t>
-  </si>
-  <si>
-    <t>5120.29 ± 2715.23 a</t>
-  </si>
-  <si>
-    <t>4686.75 ± 2858.09 ab</t>
-  </si>
-  <si>
-    <t>5567.62 ± 2957.00 a</t>
-  </si>
-  <si>
-    <t>Verisence</t>
-  </si>
-  <si>
-    <t>2468.46 ± 1887.82 b</t>
-  </si>
-  <si>
-    <t>3436.43 ± 2121.46 a</t>
-  </si>
-  <si>
-    <t>3047.43 ± 2343.80 ab</t>
-  </si>
-  <si>
-    <t>3341.73 ± 2355.17 a</t>
-  </si>
-  <si>
-    <t>Method</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Female:Black</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Female:White</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Male:Black</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Male:White</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANOVA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -189,28 +52,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -498,146 +350,196 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>30</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Female_Black</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Female_White</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Male_Black</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Male_White</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Anova</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.23100000000000001</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ADEPT</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>591.30 ± 663.99</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>977.41 ± 865.59</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>855.41 ± 763.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1247.63 ± 1466.59</t>
+        </is>
+      </c>
+      <c r="F2">
+        <v>0.966</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3">
-        <v>8.0000000000000002E-3</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>OAK</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4214.07 ± 2587.57</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5521.13 ± 2868.34</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4915.72 ± 3026.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5362.47 ± 3237.23</t>
+        </is>
+      </c>
+      <c r="F3">
+        <v>0.033</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3">
-        <v>4.3999999999999997E-2</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SDT</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>22666.69 ± 7493.26</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>24481.16 ± 7113.00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22953.99 ± 7498.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23083.66 ± 6886.88</t>
+        </is>
+      </c>
+      <c r="F4">
+        <v>0.08400000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3">
-        <v>8.7999999999999995E-2</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Stepcount</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3484.42 ± 2601.08</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5008.36 ± 2838.65</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4581.26 ± 2890.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5684.92 ± 3265.23</t>
+        </is>
+      </c>
+      <c r="F5">
+        <v>0.296</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2.8000000000000001E-2</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Verisence</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2396.87 ± 2048.26</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3354.25 ± 2200.17</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3025.48 ± 2481.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3484.50 ± 2731.99</t>
+        </is>
+      </c>
+      <c r="F6">
+        <v>0.125</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>